--- a/Data Files/HME_OR.xlsx
+++ b/Data Files/HME_OR.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="75">
   <si>
     <t>storeHeader</t>
   </si>
@@ -198,9 +198,6 @@
     <t>reportpageStoreList</t>
   </si>
   <si>
-    <t>//div[@class='saved-reports']/ul/li[6]/span/span/div/span[1]</t>
-  </si>
-  <si>
     <t>storeList</t>
   </si>
   <si>
@@ -208,13 +205,52 @@
   </si>
   <si>
     <t>//table[@class='summaryreport-table']/tbody/tr[2]/th[@class='reporttable-attributes-heading-dynamic ' or @class='reportTableAttributesHeading5' or @class='reportTableAttributesHeading5 total-cars']</t>
+  </si>
+  <si>
+    <t>//div[@class='saved-reports']/ul/li/span/span/div/span[1]</t>
+  </si>
+  <si>
+    <t>//table[@class='summaryreport-table']//tr[2]/th/span</t>
+  </si>
+  <si>
+    <t>columnHeaderList</t>
+  </si>
+  <si>
+    <t>//table[@class='summaryreport-table']/tbody/tr[2]/th</t>
+  </si>
+  <si>
+    <t>(//table[@class='goalstatistics-table goalstatistics-table-content']/tbody/tr)[1]/td</t>
+  </si>
+  <si>
+    <t>(//table[@class='goalstatistics-table goalstatistics-table-content']/tbody/tr)[4]/td</t>
+  </si>
+  <si>
+    <t>goalStatisticsList</t>
+  </si>
+  <si>
+    <t>goalStatisticsList1</t>
+  </si>
+  <si>
+    <t>goalStatisticsListB</t>
+  </si>
+  <si>
+    <t>goalsData</t>
+  </si>
+  <si>
+    <t>//table[@class='goalstatistics-table goalstatistics-table-content']/tbody/tr[1]/td[1]</t>
+  </si>
+  <si>
+    <t>goalData</t>
+  </si>
+  <si>
+    <t>//table[@class='goalstatistics-table goalstatistics-table-content']/tbody/tr[1]/td</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,6 +261,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -256,9 +299,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -539,10 +586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,7 +611,7 @@
         <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -649,7 +696,7 @@
         <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
@@ -839,7 +886,7 @@
         <v>58</v>
       </c>
       <c r="B26" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C26" t="s">
         <v>15</v>
@@ -847,7 +894,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B27" t="s">
         <v>57</v>
@@ -855,6 +902,79 @@
       <c r="C27" t="s">
         <v>15</v>
       </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>70</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="3"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
